--- a/乾燥_ver3.xlsx
+++ b/乾燥_ver3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taka\Dropbox\卒論\実験\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ti/Documents/code/sample_experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF84778A-5197-4844-943A-43994A6BFED8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D77B41-33F7-714B-863F-52C8657AE234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6255" yWindow="2145" windowWidth="15075" windowHeight="12195" xr2:uid="{210D12C1-D41D-4639-953F-2C340F0DA5A8}"/>
+    <workbookView xWindow="6260" yWindow="2140" windowWidth="15080" windowHeight="12200" xr2:uid="{210D12C1-D41D-4639-953F-2C340F0DA5A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,14 +38,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -79,7 +79,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -97,7 +97,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -122,7 +122,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -134,7 +134,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="en-JP"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -291,7 +291,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -303,7 +303,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="en-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="212305536"/>
@@ -350,7 +350,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -362,7 +362,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="en-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="204890672"/>
@@ -392,7 +392,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -404,7 +404,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="en-JP"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -441,7 +441,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
+      <a:endParaRPr lang="en-JP"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1050,7 +1050,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1346,15 +1346,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{993B2E20-26C8-403A-8A9A-522E4099220F}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>11.09</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>8.5399999999999991</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>6.52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>5.17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>4.46</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>3.39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>6.14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1436,12 +1436,71 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
       <c r="B9">
         <v>5.71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>5.1266666666666598</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>4.7338095238095201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>4.3409523809523796</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>3.9480952380952301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>3.55523809523809</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>3.1623809523809499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>2.7695238095238102</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>2.3766666666666598</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>1.9838095238095199</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>1.59095238095238</v>
       </c>
     </row>
   </sheetData>
